--- a/PLANO DE TESTE.xlsx
+++ b/PLANO DE TESTE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Janah\Facul\4 semestre\DWFE\UI-IX-TesteCaixaBranca\testeCaixaBranca\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Janah\Facul\4 semestre\QTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E95F7F-8C7D-410E-BFAF-25DDABEC7DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE2A0BB-00A8-420A-9F99-8858598F6173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
   <si>
     <t>PROJETO / SISTEMA</t>
   </si>
@@ -211,296 +211,185 @@
     <t>OPORTUNIDADES</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Método </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>CalculadoraDeJuros.calculajuros()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Faltou documentar o método </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>calculajuros()</t>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Janaina Gomes</t>
+  </si>
+  <si>
+    <t>UI-UX-TesteCaixaBranca</t>
+  </si>
+  <si>
+    <t>Nenhuma correção necessária.</t>
+  </si>
+  <si>
+    <t>Adicionar comentários Javadoc para os métodos e variáveis da classe, explicando suas funções e parâmetros.</t>
+  </si>
+  <si>
+    <t>A lógica de conexão com o banco de dados está misturada com a lógica de aplicação. Deve-se separar as responsabilidades em camadas distintas (DAO, Serviço, etc.).</t>
+  </si>
+  <si>
+    <r>
+      <t>Classe </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
-      <t>. Adicionar Javadoc para explicar a funcionalidade do método e parâmetros, conforme os padrões da empresa.</t>
-    </r>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Nenhuma correção necessária. A nomenclatura está de acordo com os padrões.</t>
-  </si>
-  <si>
-    <t>Nenhuma correção necessária. A nomenclatura das variáveis e constantes está adequada.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Loop no método </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>calculajuros()</t>
-    </r>
-  </si>
-  <si>
-    <t>Adicionar uma condição de parada ao loop para evitar execução infinita. Exemplo: garantir que o loop tenha uma condição que será eventualmente falsa, evitando loop infinito.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Adicionar verificações de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>null</t>
+      <t>User</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Método </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>verificarUsuario</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Adicionar verificações de null para o objeto </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>conn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Segoe UI"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> para evitar </t>
+      <t> antes de usá-lo para evitar </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
+        <sz val="11"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t>NullPointerException</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Segoe UI"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">. Exemplo: verificar se objetos como </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>valorInicial</t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Método </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>taxaJuros</t>
+      <t>conectarBD</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Segoe UI"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, e </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>tempo</t>
+      <t> e </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> não são nulos antes de usá-los.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A variável </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>Double jurosInicial</t>
+      <t>verificarUsuario</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Métodos </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> não está sendo inicializada. Inicializar a variável </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>jurosInicial</t>
+      <t>conectarBD</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Segoe UI"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> com um valor padrão, como </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>0.0</t>
+      <t> e </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A abertura da conexão com o BD está sendo feita no método </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>calculajuros()</t>
+      <t>verificarUsuario</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Adicionar blocos </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, mas deve ser movida para a camada de negócio. Ajustar a arquitetura, movendo a abertura de conexão para a camada de DAO ou serviço.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Adicionar tratamento de exceções no código. Usar blocos </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t>try-catch</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Segoe UI"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> para capturar e tratar exceções, como </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>SQLException</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> e outras exceções gerais que possam ocorrer.</t>
-    </r>
-  </si>
-  <si>
-    <t>Janaina Gomes</t>
-  </si>
-  <si>
-    <t>UI-UX-TesteCaixaBranca</t>
+      <t> que registrem erros de forma adequada, utilizando logs ou lançando exceções específicas.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,11 +452,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -578,6 +462,18 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFECECEC"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFECECEC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -618,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -803,21 +699,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -828,13 +709,37 @@
         <color rgb="FFFFFFFF"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -878,6 +783,12 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -892,6 +803,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -905,6 +819,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -917,26 +834,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1224,7 +1135,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.44140625" customWidth="1"/>
     <col min="2" max="2" width="28.88671875" customWidth="1"/>
@@ -1236,7 +1147,7 @@
     <col min="9" max="9" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1249,14 +1160,14 @@
       <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" ht="19.2" thickTop="1" thickBot="1">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1282,7 +1193,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" thickTop="1" thickBot="1">
+    <row r="3" spans="1:9" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1300,7 +1211,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="36.6" thickBot="1">
+    <row r="4" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1314,7 +1225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.600000000000001" thickBot="1">
+    <row r="5" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -1328,7 +1239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1">
+    <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
@@ -1358,7 +1269,7 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.109375" customWidth="1"/>
@@ -1369,7 +1280,7 @@
     <col min="7" max="7" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -1392,7 +1303,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1">
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="11"/>
@@ -1401,7 +1312,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="22.8">
+    <row r="3" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="8"/>
@@ -1423,7 +1334,7 @@
       <selection activeCell="G3" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="42.109375" customWidth="1"/>
@@ -1432,7 +1343,7 @@
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -1455,7 +1366,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1">
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="11"/>
@@ -1464,7 +1375,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="8"/>
@@ -1486,7 +1397,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.77734375" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
@@ -1496,7 +1407,7 @@
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>52</v>
       </c>
@@ -1522,7 +1433,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1">
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="11"/>
@@ -1532,7 +1443,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="22.8">
+    <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="8"/>
@@ -1551,202 +1462,202 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="49.77734375" customWidth="1"/>
     <col min="3" max="3" width="34.21875" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="5" max="5" width="43.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.4" thickBot="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" ht="24" thickTop="1" thickBot="1">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
-      <c r="A3" s="25" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="32">
         <v>45623</v>
       </c>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="1:5" ht="27.6">
-      <c r="A4" s="28" t="s">
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="100.8">
-      <c r="A5" s="30">
+    <row r="5" spans="1:5" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33">
         <v>1</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35">
+        <v>2</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="57.6">
-      <c r="A6" s="31">
-        <v>2</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="31" t="s">
+      <c r="E6" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="35">
+        <v>3</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="31" t="s">
+      <c r="D7" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="72">
-      <c r="A7" s="31">
-        <v>3</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="31" t="s">
+    <row r="8" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="35">
+        <v>4</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="51" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="33">
+        <v>5</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="115.2">
-      <c r="A8" s="30">
-        <v>4</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="30" t="s">
+      <c r="D9" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="35">
+        <v>6</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="33">
+        <v>7</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="115.2">
-      <c r="A9" s="30">
-        <v>5</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="86.4">
-      <c r="A10" s="30">
-        <v>6</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="30" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="33">
+        <v>8</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="129.6">
-      <c r="A11" s="30">
-        <v>7</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="115.2">
-      <c r="A12" s="30">
-        <v>8</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="30" t="s">
+      <c r="D12" s="33" t="s">
         <v>70</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/PLANO DE TESTE.xlsx
+++ b/PLANO DE TESTE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Janah\Facul\4 semestre\QTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Janah\Facul\4 semestre\QTS\TesteCaixaBranca\TesteCaixaBranca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE2A0BB-00A8-420A-9F99-8858598F6173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B50836D-3428-4135-B9A5-1843B59F0B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>PROJETO / SISTEMA</t>
   </si>
@@ -73,18 +73,6 @@
     <t>Existe algum loop sem condição de parada?</t>
   </si>
   <si>
-    <t>Existe algum NullPointer não tratado?</t>
-  </si>
-  <si>
-    <t>Existe alguma variável não inicializada?</t>
-  </si>
-  <si>
-    <t>O código obedece a arquitetura definida para o sistema?</t>
-  </si>
-  <si>
-    <t>Foi realizado o tratamento de exceções?</t>
-  </si>
-  <si>
     <t>CLIENTE</t>
   </si>
   <si>
@@ -226,7 +214,28 @@
     <t>Adicionar comentários Javadoc para os métodos e variáveis da classe, explicando suas funções e parâmetros.</t>
   </si>
   <si>
-    <t>A lógica de conexão com o banco de dados está misturada com a lógica de aplicação. Deve-se separar as responsabilidades em camadas distintas (DAO, Serviço, etc.).</t>
+    <t>O código está protegido contra SQL Injection?</t>
+  </si>
+  <si>
+    <t>Existem exceções que não estão sendo tratadas adequadamente?</t>
+  </si>
+  <si>
+    <t>Adicionar um tratamento de exceções adequado (logar ou rethrow) para garantir que erros sejam monitorados e tratados corretamente.</t>
+  </si>
+  <si>
+    <t>O código realiza o fechamento adequado dos recursos?</t>
+  </si>
+  <si>
+    <t>As variáveis estão corretamente encapsuladas?</t>
+  </si>
+  <si>
+    <t>O código é modular e segue o princípio da responsabilidade única?</t>
+  </si>
+  <si>
+    <t>Separar responsabilidades em métodos distintos (como para conectar ao banco de dados, construir a consulta SQL e verificar o usuário) para melhorar a legibilidade e manutenção do código.</t>
+  </si>
+  <si>
+    <t>As variáveis têm o escopo adequado?</t>
   </si>
   <si>
     <r>
@@ -258,7 +267,7 @@
   </si>
   <si>
     <r>
-      <t>Adicionar verificações de null para o objeto </t>
+      <t>Substituir concatenação de strings na consulta SQL por </t>
     </r>
     <r>
       <rPr>
@@ -267,16 +276,20 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>conn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFECECEC"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> antes de usá-lo para evitar </t>
+      <t>PreparedStatement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Segoe UI Variable Text"/>
+      </rPr>
+      <t> para prevenir SQL Injection.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bloco </t>
     </r>
     <r>
       <rPr>
@@ -285,21 +298,15 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>NullPointerException</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFECECEC"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Método </t>
+      <t>catch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Segoe UI Variable Text"/>
+      </rPr>
+      <t> em </t>
     </r>
     <r>
       <rPr>
@@ -314,8 +321,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFECECEC"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <rFont val="Segoe UI Variable Text"/>
       </rPr>
       <t> e </t>
     </r>
@@ -331,7 +337,15 @@
   </si>
   <si>
     <r>
-      <t>Métodos </t>
+      <t>Connection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Segoe UI Variable Text"/>
+      </rPr>
+      <t>, </t>
     </r>
     <r>
       <rPr>
@@ -340,16 +354,15 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>conectarBD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFECECEC"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> e </t>
+      <t>Statement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Segoe UI Variable Text"/>
+      </rPr>
+      <t>, </t>
     </r>
     <r>
       <rPr>
@@ -358,12 +371,12 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>verificarUsuario</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Adicionar blocos </t>
+      <t>ResultSet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Implementar o fechamento de recursos no bloco </t>
     </r>
     <r>
       <rPr>
@@ -372,16 +385,132 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>try-catch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFECECEC"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t> que registrem erros de forma adequada, utilizando logs ou lançando exceções específicas.</t>
+      <t>finally</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Segoe UI Variable Text"/>
+      </rPr>
+      <t> para garantir que conexões, statements e resultsets sejam fechados corretamente e evitar vazamento de recursos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public String nome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Segoe UI Variable Text"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>public boolean result</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tornar as variáveis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Segoe UI Variable Text"/>
+      </rPr>
+      <t> e </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Segoe UI Variable Text"/>
+      </rPr>
+      <t> privadas e usar métodos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Segoe UI Variable Text"/>
+      </rPr>
+      <t> e </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>setter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Segoe UI Variable Text"/>
+      </rPr>
+      <t> para acessá-las, garantindo o princípio do encapsulamento.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mover as variáveis de instância que são utilizadas apenas no método </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>verificarUsuario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECECEC"/>
+        <rFont val="Segoe UI Variable Text"/>
+      </rPr>
+      <t> para o escopo local dentro do método.</t>
     </r>
   </si>
 </sst>
@@ -466,8 +595,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFECECEC"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <name val="Segoe UI Variable Text"/>
     </font>
     <font>
       <sz val="11"/>
@@ -739,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -847,6 +975,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1149,19 +1280,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
@@ -1169,42 +1300,42 @@
     </row>
     <row r="2" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1213,44 +1344,44 @@
     </row>
     <row r="4" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1285,22 +1416,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1348,22 +1479,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1409,28 +1540,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1460,17 +1591,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="49.77734375" customWidth="1"/>
     <col min="3" max="3" width="34.21875" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="49.5546875" customWidth="1"/>
     <col min="5" max="5" width="43.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1481,7 +1612,7 @@
       <c r="B1" s="20"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E1" s="23"/>
     </row>
@@ -1492,7 +1623,7 @@
       <c r="B2" s="25"/>
       <c r="C2" s="26"/>
       <c r="D2" s="27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E2" s="28"/>
     </row>
@@ -1524,7 +1655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>1</v>
       </c>
@@ -1535,13 +1666,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35">
         <v>2</v>
       </c>
@@ -1552,13 +1683,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="35">
         <v>3</v>
       </c>
@@ -1569,13 +1700,13 @@
         <v>11</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35">
         <v>4</v>
       </c>
@@ -1586,78 +1717,112 @@
         <v>9</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51" thickBot="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="33">
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="33">
+        <v>6</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="35">
-        <v>6</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="36" t="s">
+      <c r="D10" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="33">
         <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>69</v>
+      <c r="D11" s="37" t="s">
+        <v>73</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <v>8</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="33">
+        <v>9</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="34" t="s">
-        <v>71</v>
+      <c r="E13" s="34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="33">
+        <v>10</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1670,5 +1835,6 @@
     <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>